--- a/biology/Botanique/Franciacorta/Franciacorta.xlsx
+++ b/biology/Botanique/Franciacorta/Franciacorta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Franciacorta  est une région de Lombardie (Nord de l'Italie) au sud du lac d'Iseo dans la région de Brescia. Son nom dérive de Curtes francae, nom donné aux communautés de moines bénédictins français venues s'installer dans la région.
 Cette région est une des plus vieilles régions d'Italie de production de vins pétillants. Ceux-ci subissent une double fermentation et un affinage de deux ans, ce qui en fait des vins au coût de production relativement cher en comparaison d'autres vins pétillants italiens.
